--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Tnfsf13-Sdc2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Tnfsf13-Sdc2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.153770666666667</v>
+        <v>0.5023523333333334</v>
       </c>
       <c r="H2">
-        <v>3.461312</v>
+        <v>1.507057</v>
       </c>
       <c r="I2">
-        <v>0.1294297218267159</v>
+        <v>0.06515888850144765</v>
       </c>
       <c r="J2">
-        <v>0.1294297218267159</v>
+        <v>0.06515888850144765</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.248835333333334</v>
+        <v>1.826566</v>
       </c>
       <c r="N2">
-        <v>6.746506</v>
+        <v>5.479698</v>
       </c>
       <c r="O2">
-        <v>0.03590294220158829</v>
+        <v>0.02795372904983374</v>
       </c>
       <c r="P2">
-        <v>0.03590294220158827</v>
+        <v>0.02795372904983374</v>
       </c>
       <c r="Q2">
-        <v>2.594640241763556</v>
+        <v>0.9175796920873334</v>
       </c>
       <c r="R2">
-        <v>23.351762175872</v>
+        <v>8.258217228786</v>
       </c>
       <c r="S2">
-        <v>0.00464690782191223</v>
+        <v>0.001821433914357795</v>
       </c>
       <c r="T2">
-        <v>0.004646907821912228</v>
+        <v>0.001821433914357795</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.153770666666667</v>
+        <v>0.5023523333333334</v>
       </c>
       <c r="H3">
-        <v>3.461312</v>
+        <v>1.507057</v>
       </c>
       <c r="I3">
-        <v>0.1294297218267159</v>
+        <v>0.06515888850144765</v>
       </c>
       <c r="J3">
-        <v>0.1294297218267159</v>
+        <v>0.06515888850144765</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>44.29005966666666</v>
+        <v>44.29005966666667</v>
       </c>
       <c r="N3">
         <v>132.870179</v>
       </c>
       <c r="O3">
-        <v>0.7070964373190638</v>
+        <v>0.6778141756295529</v>
       </c>
       <c r="P3">
-        <v>0.7070964373190638</v>
+        <v>0.6778141756295529</v>
       </c>
       <c r="Q3">
-        <v>51.10057166831643</v>
+        <v>22.24921481702256</v>
       </c>
       <c r="R3">
-        <v>459.9051450148479</v>
+        <v>200.242933353203</v>
       </c>
       <c r="S3">
-        <v>0.09151929518686826</v>
+        <v>0.04416561829454669</v>
       </c>
       <c r="T3">
-        <v>0.09151929518686826</v>
+        <v>0.04416561829454669</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.153770666666667</v>
+        <v>0.5023523333333334</v>
       </c>
       <c r="H4">
-        <v>3.461312</v>
+        <v>1.507057</v>
       </c>
       <c r="I4">
-        <v>0.1294297218267159</v>
+        <v>0.06515888850144765</v>
       </c>
       <c r="J4">
-        <v>0.1294297218267159</v>
+        <v>0.06515888850144765</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,33 +682,33 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>16.09762433333333</v>
+        <v>19.10886933333333</v>
       </c>
       <c r="N4">
-        <v>48.292873</v>
+        <v>57.326608</v>
       </c>
       <c r="O4">
-        <v>0.2570006204793479</v>
+        <v>0.2924417490485847</v>
       </c>
       <c r="P4">
-        <v>0.2570006204793479</v>
+        <v>0.2924417490485847</v>
       </c>
       <c r="Q4">
-        <v>18.57296675881955</v>
+        <v>9.599385096961779</v>
       </c>
       <c r="R4">
-        <v>167.156700829376</v>
+        <v>86.394465872656</v>
       </c>
       <c r="S4">
-        <v>0.03326351881793537</v>
+        <v>0.01905517931942506</v>
       </c>
       <c r="T4">
-        <v>0.03326351881793537</v>
+        <v>0.01905517931942506</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,7 +717,7 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,46 +726,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.560947</v>
+        <v>0.5023523333333334</v>
       </c>
       <c r="H5">
-        <v>1.682841</v>
+        <v>1.507057</v>
       </c>
       <c r="I5">
-        <v>0.06292690243138796</v>
+        <v>0.06515888850144765</v>
       </c>
       <c r="J5">
-        <v>0.06292690243138796</v>
+        <v>0.06515888850144765</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>2.248835333333334</v>
+        <v>0.1169856666666667</v>
       </c>
       <c r="N5">
-        <v>6.746506</v>
+        <v>0.350957</v>
       </c>
       <c r="O5">
-        <v>0.03590294220158829</v>
+        <v>0.001790346272028586</v>
       </c>
       <c r="P5">
-        <v>0.03590294220158827</v>
+        <v>0.001790346272028586</v>
       </c>
       <c r="Q5">
-        <v>1.261477433727333</v>
+        <v>0.05876802261655556</v>
       </c>
       <c r="R5">
-        <v>11.353296903546</v>
+        <v>0.5289122035489999</v>
       </c>
       <c r="S5">
-        <v>0.002259260940919107</v>
+        <v>0.0001166569731180931</v>
       </c>
       <c r="T5">
-        <v>0.002259260940919106</v>
+        <v>0.0001166569731180931</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,7 +779,7 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -794,10 +794,10 @@
         <v>1.682841</v>
       </c>
       <c r="I6">
-        <v>0.06292690243138796</v>
+        <v>0.07275905893716338</v>
       </c>
       <c r="J6">
-        <v>0.06292690243138796</v>
+        <v>0.07275905893716339</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>44.29005966666666</v>
+        <v>1.826566</v>
       </c>
       <c r="N6">
-        <v>132.870179</v>
+        <v>5.479698</v>
       </c>
       <c r="O6">
-        <v>0.7070964373190638</v>
+        <v>0.02795372904983374</v>
       </c>
       <c r="P6">
-        <v>0.7070964373190638</v>
+        <v>0.02795372904983374</v>
       </c>
       <c r="Q6">
-        <v>24.84437609983766</v>
+        <v>1.024606718002</v>
       </c>
       <c r="R6">
-        <v>223.5993848985389</v>
+        <v>9.221460462017999</v>
       </c>
       <c r="S6">
-        <v>0.04449538852075876</v>
+        <v>0.002033887019450349</v>
       </c>
       <c r="T6">
-        <v>0.04449538852075876</v>
+        <v>0.00203388701945035</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,7 +841,7 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -856,10 +856,10 @@
         <v>1.682841</v>
       </c>
       <c r="I7">
-        <v>0.06292690243138796</v>
+        <v>0.07275905893716338</v>
       </c>
       <c r="J7">
-        <v>0.06292690243138796</v>
+        <v>0.07275905893716339</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,33 +868,33 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>16.09762433333333</v>
+        <v>44.29005966666667</v>
       </c>
       <c r="N7">
-        <v>48.292873</v>
+        <v>132.870179</v>
       </c>
       <c r="O7">
-        <v>0.2570006204793479</v>
+        <v>0.6778141756295529</v>
       </c>
       <c r="P7">
-        <v>0.2570006204793479</v>
+        <v>0.6778141756295529</v>
       </c>
       <c r="Q7">
-        <v>9.029914076910332</v>
+        <v>24.84437609983767</v>
       </c>
       <c r="R7">
-        <v>81.26922669219299</v>
+        <v>223.599384898539</v>
       </c>
       <c r="S7">
-        <v>0.01617225296971009</v>
+        <v>0.04931712155307545</v>
       </c>
       <c r="T7">
-        <v>0.01617225296971009</v>
+        <v>0.04931712155307546</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -903,7 +903,7 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.837574333333333</v>
+        <v>0.560947</v>
       </c>
       <c r="H8">
-        <v>11.512723</v>
+        <v>1.682841</v>
       </c>
       <c r="I8">
-        <v>0.4304981854736105</v>
+        <v>0.07275905893716338</v>
       </c>
       <c r="J8">
-        <v>0.4304981854736105</v>
+        <v>0.07275905893716339</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -930,33 +930,33 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.248835333333334</v>
+        <v>19.10886933333333</v>
       </c>
       <c r="N8">
-        <v>6.746506</v>
+        <v>57.326608</v>
       </c>
       <c r="O8">
-        <v>0.03590294220158829</v>
+        <v>0.2924417490485847</v>
       </c>
       <c r="P8">
-        <v>0.03590294220158827</v>
+        <v>0.2924417490485847</v>
       </c>
       <c r="Q8">
-        <v>8.630072755093112</v>
+        <v>10.71906292592533</v>
       </c>
       <c r="R8">
-        <v>77.67065479583799</v>
+        <v>96.471566333328</v>
       </c>
       <c r="S8">
-        <v>0.01545615147094767</v>
+        <v>0.02127778645471312</v>
       </c>
       <c r="T8">
-        <v>0.01545615147094767</v>
+        <v>0.02127778645471312</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -965,7 +965,7 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -974,46 +974,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.837574333333333</v>
+        <v>0.560947</v>
       </c>
       <c r="H9">
-        <v>11.512723</v>
+        <v>1.682841</v>
       </c>
       <c r="I9">
-        <v>0.4304981854736105</v>
+        <v>0.07275905893716338</v>
       </c>
       <c r="J9">
-        <v>0.4304981854736105</v>
+        <v>0.07275905893716339</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>44.29005966666666</v>
+        <v>0.1169856666666667</v>
       </c>
       <c r="N9">
-        <v>132.870179</v>
+        <v>0.350957</v>
       </c>
       <c r="O9">
-        <v>0.7070964373190638</v>
+        <v>0.001790346272028586</v>
       </c>
       <c r="P9">
-        <v>0.7070964373190638</v>
+        <v>0.001790346272028586</v>
       </c>
       <c r="Q9">
-        <v>169.9663961986018</v>
+        <v>0.06562275875966665</v>
       </c>
       <c r="R9">
-        <v>1529.697565787417</v>
+        <v>0.5906048288369999</v>
       </c>
       <c r="S9">
-        <v>0.3044037332207115</v>
+        <v>0.0001302639099244587</v>
       </c>
       <c r="T9">
-        <v>0.3044037332207115</v>
+        <v>0.0001302639099244587</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,7 +1027,7 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.837574333333333</v>
+        <v>2.845667666666667</v>
       </c>
       <c r="H10">
-        <v>11.512723</v>
+        <v>8.537003</v>
       </c>
       <c r="I10">
-        <v>0.4304981854736105</v>
+        <v>0.3691045704399529</v>
       </c>
       <c r="J10">
-        <v>0.4304981854736105</v>
+        <v>0.3691045704399529</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,33 +1054,33 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>16.09762433333333</v>
+        <v>1.826566</v>
       </c>
       <c r="N10">
-        <v>48.292873</v>
+        <v>5.479698</v>
       </c>
       <c r="O10">
-        <v>0.2570006204793479</v>
+        <v>0.02795372904983374</v>
       </c>
       <c r="P10">
-        <v>0.2570006204793479</v>
+        <v>0.02795372904983374</v>
       </c>
       <c r="Q10">
-        <v>61.7758299692421</v>
+        <v>5.197799807232667</v>
       </c>
       <c r="R10">
-        <v>555.982469723179</v>
+        <v>46.780198265094</v>
       </c>
       <c r="S10">
-        <v>0.1106383007819513</v>
+        <v>0.01031784915313371</v>
       </c>
       <c r="T10">
-        <v>0.1106383007819513</v>
+        <v>0.01031784915313372</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,7 +1089,7 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.182783</v>
+        <v>2.845667666666667</v>
       </c>
       <c r="H11">
-        <v>0.548349</v>
+        <v>8.537003</v>
       </c>
       <c r="I11">
-        <v>0.02050455391884864</v>
+        <v>0.3691045704399529</v>
       </c>
       <c r="J11">
-        <v>0.02050455391884864</v>
+        <v>0.3691045704399529</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,43 +1116,43 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.248835333333334</v>
+        <v>44.29005966666667</v>
       </c>
       <c r="N11">
-        <v>6.746506</v>
+        <v>132.870179</v>
       </c>
       <c r="O11">
-        <v>0.03590294220158829</v>
+        <v>0.6778141756295529</v>
       </c>
       <c r="P11">
-        <v>0.03590294220158827</v>
+        <v>0.6778141756295529</v>
       </c>
       <c r="Q11">
-        <v>0.4110488687326667</v>
+        <v>126.0347907481708</v>
       </c>
       <c r="R11">
-        <v>3.699439818594</v>
+        <v>1134.313116733537</v>
       </c>
       <c r="S11">
-        <v>0.0007361738142177733</v>
+        <v>0.2501843101338569</v>
       </c>
       <c r="T11">
-        <v>0.000736173814217773</v>
+        <v>0.2501843101338569</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
         <v>23</v>
       </c>
-      <c r="B12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" t="s">
-        <v>21</v>
-      </c>
       <c r="E12">
         <v>3</v>
       </c>
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.182783</v>
+        <v>2.845667666666667</v>
       </c>
       <c r="H12">
-        <v>0.548349</v>
+        <v>8.537003</v>
       </c>
       <c r="I12">
-        <v>0.02050455391884864</v>
+        <v>0.3691045704399529</v>
       </c>
       <c r="J12">
-        <v>0.02050455391884864</v>
+        <v>0.3691045704399529</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,33 +1178,33 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>44.29005966666666</v>
+        <v>19.10886933333333</v>
       </c>
       <c r="N12">
-        <v>132.870179</v>
+        <v>57.326608</v>
       </c>
       <c r="O12">
-        <v>0.7070964373190638</v>
+        <v>0.2924417490485847</v>
       </c>
       <c r="P12">
-        <v>0.7070964373190638</v>
+        <v>0.2924417490485847</v>
       </c>
       <c r="Q12">
-        <v>8.095469976052332</v>
+        <v>54.3774916084249</v>
       </c>
       <c r="R12">
-        <v>72.85922978447098</v>
+        <v>489.397424475824</v>
       </c>
       <c r="S12">
-        <v>0.01449869702483452</v>
+        <v>0.1079415861612864</v>
       </c>
       <c r="T12">
-        <v>0.01449869702483452</v>
+        <v>0.1079415861612864</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
@@ -1213,7 +1213,7 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1222,51 +1222,51 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.182783</v>
+        <v>2.845667666666667</v>
       </c>
       <c r="H13">
-        <v>0.548349</v>
+        <v>8.537003</v>
       </c>
       <c r="I13">
-        <v>0.02050455391884864</v>
+        <v>0.3691045704399529</v>
       </c>
       <c r="J13">
-        <v>0.02050455391884864</v>
+        <v>0.3691045704399529</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>16.09762433333333</v>
+        <v>0.1169856666666667</v>
       </c>
       <c r="N13">
-        <v>48.292873</v>
+        <v>0.350957</v>
       </c>
       <c r="O13">
-        <v>0.2570006204793479</v>
+        <v>0.001790346272028586</v>
       </c>
       <c r="P13">
-        <v>0.2570006204793479</v>
+        <v>0.001790346272028586</v>
       </c>
       <c r="Q13">
-        <v>2.942372068519667</v>
+        <v>0.3329023290967777</v>
       </c>
       <c r="R13">
-        <v>26.481348616677</v>
+        <v>2.996120961871</v>
       </c>
       <c r="S13">
-        <v>0.005269683079796344</v>
+        <v>0.0006608249916758823</v>
       </c>
       <c r="T13">
-        <v>0.005269683079796344</v>
+        <v>0.0006608249916758824</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1278,22 +1278,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>3.179188666666666</v>
+        <v>0.11543</v>
       </c>
       <c r="H14">
-        <v>9.537565999999998</v>
+        <v>0.34629</v>
       </c>
       <c r="I14">
-        <v>0.3566406363494372</v>
+        <v>0.01497214206175765</v>
       </c>
       <c r="J14">
-        <v>0.3566406363494371</v>
+        <v>0.01497214206175765</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,33 +1302,33 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.248835333333334</v>
+        <v>1.826566</v>
       </c>
       <c r="N14">
-        <v>6.746506</v>
+        <v>5.479698</v>
       </c>
       <c r="O14">
-        <v>0.03590294220158829</v>
+        <v>0.02795372904983374</v>
       </c>
       <c r="P14">
-        <v>0.03590294220158827</v>
+        <v>0.02795372904983374</v>
       </c>
       <c r="Q14">
-        <v>7.149471804932888</v>
+        <v>0.21084051338</v>
       </c>
       <c r="R14">
-        <v>64.34524624439599</v>
+        <v>1.89756462042</v>
       </c>
       <c r="S14">
-        <v>0.01280444815359151</v>
+        <v>0.0004185272024899925</v>
       </c>
       <c r="T14">
-        <v>0.0128044481535915</v>
+        <v>0.0004185272024899926</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -1340,22 +1340,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>3.179188666666666</v>
+        <v>0.11543</v>
       </c>
       <c r="H15">
-        <v>9.537565999999998</v>
+        <v>0.34629</v>
       </c>
       <c r="I15">
-        <v>0.3566406363494372</v>
+        <v>0.01497214206175765</v>
       </c>
       <c r="J15">
-        <v>0.3566406363494371</v>
+        <v>0.01497214206175765</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,33 +1364,33 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>44.29005966666666</v>
+        <v>44.29005966666667</v>
       </c>
       <c r="N15">
         <v>132.870179</v>
       </c>
       <c r="O15">
-        <v>0.7070964373190638</v>
+        <v>0.6778141756295529</v>
       </c>
       <c r="P15">
-        <v>0.7070964373190638</v>
+        <v>0.6778141756295529</v>
       </c>
       <c r="Q15">
-        <v>140.8064557382571</v>
+        <v>5.112401587323333</v>
       </c>
       <c r="R15">
-        <v>1267.258101644313</v>
+        <v>46.01161428591</v>
       </c>
       <c r="S15">
-        <v>0.2521793233658908</v>
+        <v>0.01014833012899882</v>
       </c>
       <c r="T15">
-        <v>0.2521793233658908</v>
+        <v>0.01014833012899882</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -1402,22 +1402,22 @@
         <v>23</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>3.179188666666666</v>
+        <v>0.11543</v>
       </c>
       <c r="H16">
-        <v>9.537565999999998</v>
+        <v>0.34629</v>
       </c>
       <c r="I16">
-        <v>0.3566406363494372</v>
+        <v>0.01497214206175765</v>
       </c>
       <c r="J16">
-        <v>0.3566406363494371</v>
+        <v>0.01497214206175765</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,338 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>16.09762433333333</v>
+        <v>19.10886933333333</v>
       </c>
       <c r="N16">
-        <v>48.292873</v>
+        <v>57.326608</v>
       </c>
       <c r="O16">
-        <v>0.2570006204793479</v>
+        <v>0.2924417490485847</v>
       </c>
       <c r="P16">
-        <v>0.2570006204793479</v>
+        <v>0.2924417490485847</v>
       </c>
       <c r="Q16">
-        <v>51.17738484079088</v>
+        <v>2.205736787146666</v>
       </c>
       <c r="R16">
-        <v>460.5964635671179</v>
+        <v>19.85163108432</v>
       </c>
       <c r="S16">
-        <v>0.0916568648299548</v>
+        <v>0.00437847941154429</v>
       </c>
       <c r="T16">
-        <v>0.09165686482995479</v>
+        <v>0.004378479411544291</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>0.11543</v>
+      </c>
+      <c r="H17">
+        <v>0.34629</v>
+      </c>
+      <c r="I17">
+        <v>0.01497214206175765</v>
+      </c>
+      <c r="J17">
+        <v>0.01497214206175765</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M17">
+        <v>0.1169856666666667</v>
+      </c>
+      <c r="N17">
+        <v>0.350957</v>
+      </c>
+      <c r="O17">
+        <v>0.001790346272028586</v>
+      </c>
+      <c r="P17">
+        <v>0.001790346272028586</v>
+      </c>
+      <c r="Q17">
+        <v>0.01350365550333333</v>
+      </c>
+      <c r="R17">
+        <v>0.12153289953</v>
+      </c>
+      <c r="S17">
+        <v>2.68053187245502E-05</v>
+      </c>
+      <c r="T17">
+        <v>2.680531872455021E-05</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>3.685254666666667</v>
+      </c>
+      <c r="H18">
+        <v>11.055764</v>
+      </c>
+      <c r="I18">
+        <v>0.4780053400596784</v>
+      </c>
+      <c r="J18">
+        <v>0.4780053400596784</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>1.826566</v>
+      </c>
+      <c r="N18">
+        <v>5.479698</v>
+      </c>
+      <c r="O18">
+        <v>0.02795372904983374</v>
+      </c>
+      <c r="P18">
+        <v>0.02795372904983374</v>
+      </c>
+      <c r="Q18">
+        <v>6.731360875474667</v>
+      </c>
+      <c r="R18">
+        <v>60.582247879272</v>
+      </c>
+      <c r="S18">
+        <v>0.01336203176040189</v>
+      </c>
+      <c r="T18">
+        <v>0.01336203176040189</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>3.685254666666667</v>
+      </c>
+      <c r="H19">
+        <v>11.055764</v>
+      </c>
+      <c r="I19">
+        <v>0.4780053400596784</v>
+      </c>
+      <c r="J19">
+        <v>0.4780053400596784</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>44.29005966666667</v>
+      </c>
+      <c r="N19">
+        <v>132.870179</v>
+      </c>
+      <c r="O19">
+        <v>0.6778141756295529</v>
+      </c>
+      <c r="P19">
+        <v>0.6778141756295529</v>
+      </c>
+      <c r="Q19">
+        <v>163.2201490735285</v>
+      </c>
+      <c r="R19">
+        <v>1468.981341661756</v>
+      </c>
+      <c r="S19">
+        <v>0.323998795519075</v>
+      </c>
+      <c r="T19">
+        <v>0.3239987955190751</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>3.685254666666667</v>
+      </c>
+      <c r="H20">
+        <v>11.055764</v>
+      </c>
+      <c r="I20">
+        <v>0.4780053400596784</v>
+      </c>
+      <c r="J20">
+        <v>0.4780053400596784</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>19.10886933333333</v>
+      </c>
+      <c r="N20">
+        <v>57.326608</v>
+      </c>
+      <c r="O20">
+        <v>0.2924417490485847</v>
+      </c>
+      <c r="P20">
+        <v>0.2924417490485847</v>
+      </c>
+      <c r="Q20">
+        <v>70.42104988539023</v>
+      </c>
+      <c r="R20">
+        <v>633.789448968512</v>
+      </c>
+      <c r="S20">
+        <v>0.1397887177016159</v>
+      </c>
+      <c r="T20">
+        <v>0.1397887177016159</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>3.685254666666667</v>
+      </c>
+      <c r="H21">
+        <v>11.055764</v>
+      </c>
+      <c r="I21">
+        <v>0.4780053400596784</v>
+      </c>
+      <c r="J21">
+        <v>0.4780053400596784</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M21">
+        <v>0.1169856666666667</v>
+      </c>
+      <c r="N21">
+        <v>0.350957</v>
+      </c>
+      <c r="O21">
+        <v>0.001790346272028586</v>
+      </c>
+      <c r="P21">
+        <v>0.001790346272028586</v>
+      </c>
+      <c r="Q21">
+        <v>0.4311219740164444</v>
+      </c>
+      <c r="R21">
+        <v>3.880097766147999</v>
+      </c>
+      <c r="S21">
+        <v>0.0008557950785856018</v>
+      </c>
+      <c r="T21">
+        <v>0.000855795078585602</v>
       </c>
     </row>
   </sheetData>
